--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_16_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_16_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53471.10695111988</v>
+        <v>10640750.28327284</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53471.10695111988</v>
+        <v>10640750.28327284</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959412574.7739296</v>
+        <v>39746536.05070945</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8322.208684901721</v>
+        <v>932937.8467246699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15704.61790000267</v>
+        <v>1719617.14537285</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23087.02711510361</v>
+        <v>2506296.444021032</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30823.34275083477</v>
+        <v>3314335.301097591</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38454.49151787906</v>
+        <v>4101445.951305464</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46085.64028492334</v>
+        <v>4888556.601513335</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53716.78905196761</v>
+        <v>5675667.251721203</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61347.9378190119</v>
+        <v>6462777.901929071</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69011.60053361257</v>
+        <v>7251779.655167243</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76665.76021791018</v>
+        <v>8038890.305375112</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84319.9199022078</v>
+        <v>8826000.955582986</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91619.2988315562</v>
+        <v>9592183.398922175</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99023.84462959146</v>
+        <v>10379294.04913005</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106428.3904276267</v>
+        <v>11166404.69933793</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113832.936225662</v>
+        <v>11953515.34954581</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>354</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>166</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
